--- a/results/energy-analysis/energy-consumption.xlsx
+++ b/results/energy-analysis/energy-consumption.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/VM/jacdac-ota/microbit-samples/results/energy-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F205BD6-7B61-484C-ABB5-4E41E0D23D47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67639286-F2EA-B149-A8D2-1F4E02DED661}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16500" xr2:uid="{30CE4A45-ABCB-A74E-87BA-8D74890818CE}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16500" activeTab="1" xr2:uid="{30CE4A45-ABCB-A74E-87BA-8D74890818CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
   <si>
     <t>Number of devices</t>
   </si>
@@ -96,6 +97,45 @@
   </si>
   <si>
     <t>CONNECTED + IDLE</t>
+  </si>
+  <si>
+    <t>ma</t>
+  </si>
+  <si>
+    <t>Whisper (ms)</t>
+  </si>
+  <si>
+    <t>Glossy (ms)</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>active (ms)</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>battery capacity (mAh)</t>
+  </si>
+  <si>
+    <t>mAh</t>
+  </si>
+  <si>
+    <t>Ron time Whisper</t>
+  </si>
+  <si>
+    <t>Formula is: (Packet size * 8) x TTL + 500</t>
+  </si>
+  <si>
+    <t>(I suspect actual is 2.1</t>
+  </si>
+  <si>
+    <t>I suspect actual is 4.1</t>
   </si>
 </sst>
 </file>
@@ -131,8 +171,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1516,8 +1557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22C6116-72B2-114B-ADC4-0691EDF344F1}">
   <dimension ref="B3:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2155,31 +2196,31 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="D31">
         <f t="shared" ref="D31:D33" si="14">$O$5/C31</f>
-        <v>487.80487804878055</v>
+        <v>500</v>
       </c>
       <c r="E31">
         <f t="shared" ref="E31:E33" si="15">$O$6/C31</f>
-        <v>548.78048780487813</v>
+        <v>562.5</v>
       </c>
       <c r="F31">
         <f t="shared" ref="F31:F33" si="16">$O$7/C31</f>
-        <v>609.75609756097572</v>
+        <v>625</v>
       </c>
       <c r="G31">
         <f t="shared" ref="G31:G33" si="17">D31/24</f>
-        <v>20.325203252032523</v>
+        <v>20.833333333333332</v>
       </c>
       <c r="H31">
         <f t="shared" ref="H31:H33" si="18">E31/24</f>
-        <v>22.86585365853659</v>
+        <v>23.4375</v>
       </c>
       <c r="I31">
         <f t="shared" ref="I31:I33" si="19">F31/24</f>
-        <v>25.406504065040654</v>
+        <v>26.041666666666668</v>
       </c>
     </row>
     <row r="32" spans="2:12">
@@ -2282,4 +2323,216 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9A147B-64C6-3046-AB41-3BA1FCCCB232}">
+  <dimension ref="A3:I16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="75.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:9">
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>1.9</v>
+      </c>
+      <c r="D4">
+        <v>2193</v>
+      </c>
+      <c r="E4">
+        <f>D4*24</f>
+        <v>52632</v>
+      </c>
+      <c r="F4">
+        <v>2000</v>
+      </c>
+      <c r="G4">
+        <f>2000/(B4*(2/3600000))</f>
+        <v>180000000.00000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>3.7</v>
+      </c>
+      <c r="D5">
+        <v>1126</v>
+      </c>
+      <c r="E5">
+        <f>D5*24</f>
+        <v>27024</v>
+      </c>
+      <c r="F5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>1.9</v>
+      </c>
+      <c r="D7">
+        <v>52632</v>
+      </c>
+      <c r="E7">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" s="1">
+        <f>20 *(2/3600000)</f>
+        <v>1.111111111111111E-5</v>
+      </c>
+      <c r="C8">
+        <f>2000/B8</f>
+        <v>180000000.00000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="F9">
+        <f>2*360000</f>
+        <v>720000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="E11">
+        <f>C4</f>
+        <v>1.9</v>
+      </c>
+      <c r="F11">
+        <f>((E11/1000)*360)</f>
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="G11">
+        <f>ROUND(F11/20,3)</f>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H11">
+        <f>2000/G11</f>
+        <v>58823.529411764699</v>
+      </c>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="E12">
+        <f>C5</f>
+        <v>3.7</v>
+      </c>
+      <c r="F12">
+        <v>0.76</v>
+      </c>
+      <c r="G12">
+        <f>F12/20</f>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="H12">
+        <f>2000/G12</f>
+        <v>52631.57894736842</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="E13">
+        <f>C5</f>
+        <v>3.7</v>
+      </c>
+      <c r="F13">
+        <f>((E13/1000)*360)</f>
+        <v>1.3320000000000001</v>
+      </c>
+      <c r="G13">
+        <f>ROUND(F13/20,3)</f>
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="H13">
+        <f>2000/G13</f>
+        <v>29850.746268656716</v>
+      </c>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="E14">
+        <v>1.2</v>
+      </c>
+      <c r="F14">
+        <f>((E14/1000)*360)</f>
+        <v>0.43199999999999994</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ref="G13:G14" si="0">F14/20</f>
+        <v>2.1599999999999998E-2</v>
+      </c>
+      <c r="H14">
+        <f>2000/G14</f>
+        <v>92592.592592592599</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results/energy-analysis/energy-consumption.xlsx
+++ b/results/energy-analysis/energy-consumption.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/VM/jacdac-ota/microbit-samples/results/energy-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67639286-F2EA-B149-A8D2-1F4E02DED661}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5607BB3-B4C8-3D42-BCD6-93E93B03E249}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16500" activeTab="1" xr2:uid="{30CE4A45-ABCB-A74E-87BA-8D74890818CE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
   <si>
     <t>Number of devices</t>
   </si>
@@ -136,13 +136,22 @@
   </si>
   <si>
     <t>I suspect actual is 4.1</t>
+  </si>
+  <si>
+    <t>RipTide</t>
+  </si>
+  <si>
+    <t>Whisper</t>
+  </si>
+  <si>
+    <t>Glossy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1557,17 +1566,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22C6116-72B2-114B-ADC4-0691EDF344F1}">
   <dimension ref="B3:O34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="30.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -1581,7 +1590,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:15">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -1619,7 +1628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>1</v>
       </c>
@@ -1667,7 +1676,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>2</v>
       </c>
@@ -1715,7 +1724,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>3</v>
       </c>
@@ -1763,7 +1772,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>4</v>
       </c>
@@ -1805,7 +1814,7 @@
         <v>12.505002000800319</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>5</v>
       </c>
@@ -1847,7 +1856,7 @@
         <v>11.599851521900518</v>
       </c>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>6</v>
       </c>
@@ -1858,7 +1867,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>0</v>
       </c>
@@ -1893,7 +1902,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>1</v>
       </c>
@@ -1935,7 +1944,7 @@
         <v>24.168600154679037</v>
       </c>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>2</v>
       </c>
@@ -1977,7 +1986,7 @@
         <v>24.567610062893081</v>
       </c>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>3</v>
       </c>
@@ -2019,7 +2028,7 @@
         <v>22.305496074232693</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>4</v>
       </c>
@@ -2061,7 +2070,7 @@
         <v>21.792189679218968</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>5</v>
       </c>
@@ -2103,32 +2112,32 @@
         <v>20.5456936226167</v>
       </c>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
         <v>18</v>
       </c>
@@ -2136,7 +2145,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>7</v>
       </c>
@@ -2159,7 +2168,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>9</v>
       </c>
@@ -2191,7 +2200,7 @@
         <v>28.153153153153152</v>
       </c>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>10</v>
       </c>
@@ -2199,31 +2208,31 @@
         <v>4</v>
       </c>
       <c r="D31">
-        <f t="shared" ref="D31:D33" si="14">$O$5/C31</f>
+        <f t="shared" ref="D31:D32" si="14">$O$5/C31</f>
         <v>500</v>
       </c>
       <c r="E31">
-        <f t="shared" ref="E31:E33" si="15">$O$6/C31</f>
+        <f t="shared" ref="E31:E32" si="15">$O$6/C31</f>
         <v>562.5</v>
       </c>
       <c r="F31">
-        <f t="shared" ref="F31:F33" si="16">$O$7/C31</f>
+        <f t="shared" ref="F31" si="16">$O$7/C31</f>
         <v>625</v>
       </c>
       <c r="G31">
-        <f t="shared" ref="G31:G33" si="17">D31/24</f>
+        <f t="shared" ref="G31" si="17">D31/24</f>
         <v>20.833333333333332</v>
       </c>
       <c r="H31">
-        <f t="shared" ref="H31:H33" si="18">E31/24</f>
+        <f t="shared" ref="H31" si="18">E31/24</f>
         <v>23.4375</v>
       </c>
       <c r="I31">
-        <f t="shared" ref="I31:I33" si="19">F31/24</f>
+        <f t="shared" ref="I31" si="19">F31/24</f>
         <v>26.041666666666668</v>
       </c>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>20</v>
       </c>
@@ -2255,7 +2264,7 @@
         <v>32.552083333333336</v>
       </c>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>19</v>
       </c>
@@ -2275,19 +2284,19 @@
         <v>714.28571428571433</v>
       </c>
       <c r="G33">
-        <f>D33/24</f>
+        <f t="shared" ref="G33:I34" si="24">D33/24</f>
         <v>23.80952380952381</v>
       </c>
       <c r="H33">
-        <f>E33/24</f>
+        <f t="shared" si="24"/>
         <v>26.785714285714288</v>
       </c>
       <c r="I33">
-        <f>F33/24</f>
+        <f t="shared" si="24"/>
         <v>29.761904761904763</v>
       </c>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>11</v>
       </c>
@@ -2307,15 +2316,15 @@
         <v>641.02564102564099</v>
       </c>
       <c r="G34">
-        <f>D34/24</f>
+        <f t="shared" si="24"/>
         <v>21.367521367521366</v>
       </c>
       <c r="H34">
-        <f>E34/24</f>
+        <f t="shared" si="24"/>
         <v>24.038461538461537</v>
       </c>
       <c r="I34">
-        <f>F34/24</f>
+        <f t="shared" si="24"/>
         <v>26.709401709401707</v>
       </c>
     </row>
@@ -2329,11 +2338,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9A147B-64C6-3046-AB41-3BA1FCCCB232}">
   <dimension ref="A3:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="75.33203125" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
@@ -2342,7 +2351,7 @@
     <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>21</v>
       </c>
@@ -2359,7 +2368,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -2384,7 +2393,7 @@
         <v>180000000.00000003</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -2405,7 +2414,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>24</v>
       </c>
@@ -2413,7 +2422,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>20</v>
       </c>
@@ -2427,7 +2436,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <f>20 *(2/3600000)</f>
         <v>1.111111111111111E-5</v>
@@ -2437,13 +2446,13 @@
         <v>180000000.00000003</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F9">
         <f>2*360000</f>
         <v>720000</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F10" t="s">
         <v>30</v>
       </c>
@@ -2451,7 +2460,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
       <c r="E11">
         <f>C4</f>
         <v>1.9</v>
@@ -2472,7 +2484,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E12">
         <f>C5</f>
         <v>3.7</v>
@@ -2489,7 +2501,10 @@
         <v>52631.57894736842</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
       <c r="E13">
         <f>C5</f>
         <v>3.7</v>
@@ -2510,7 +2525,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
       <c r="E14">
         <v>1.2</v>
       </c>
@@ -2519,7 +2537,7 @@
         <v>0.43199999999999994</v>
       </c>
       <c r="G14">
-        <f t="shared" ref="G13:G14" si="0">F14/20</f>
+        <f t="shared" ref="G14" si="0">F14/20</f>
         <v>2.1599999999999998E-2</v>
       </c>
       <c r="H14">
@@ -2527,7 +2545,7 @@
         <v>92592.592592592599</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>31</v>
       </c>

--- a/results/energy-analysis/energy-consumption.xlsx
+++ b/results/energy-analysis/energy-consumption.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/VM/jacdac-ota/microbit-samples/results/energy-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5607BB3-B4C8-3D42-BCD6-93E93B03E249}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E391CCD1-8F76-6247-9503-3C9640B71D9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16500" activeTab="1" xr2:uid="{30CE4A45-ABCB-A74E-87BA-8D74890818CE}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16500" xr2:uid="{30CE4A45-ABCB-A74E-87BA-8D74890818CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
   <si>
     <t>Number of devices</t>
   </si>
@@ -151,7 +151,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -681,7 +681,541 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="2000"/>
+              <a:t>Number</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="2000" baseline="0"/>
+              <a:t> of days on a 2000 mAh battery</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="2000"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Glossy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>Protocol</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1243.7810945273632</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2D9C-7145-995D-7552C8D58DC3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Whisper</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>Protocol</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2450.9803921568623</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2D9C-7145-995D-7552C8D58DC3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RipTide</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>Protocol</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3858.0246913580249</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2D9C-7145-995D-7552C8D58DC3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2052797135"/>
+        <c:axId val="2052963151"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2052797135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2052963151"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2052963151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1400"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1400" baseline="0"/>
+                  <a:t> of Days</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2052797135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1226,6 +1760,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1247,6 +2284,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3180067B-3805-4D40-9932-29037A7FEE89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1850236</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>166380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>489357</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C29DFF4-17E7-044D-949B-98C1C5BD0179}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1566,17 +2644,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22C6116-72B2-114B-ADC4-0691EDF344F1}">
   <dimension ref="B3:O34"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="30.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:15">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -1590,7 +2668,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:15">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -1628,7 +2706,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:15">
       <c r="B5">
         <v>1</v>
       </c>
@@ -1676,7 +2754,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:15">
       <c r="B6">
         <v>2</v>
       </c>
@@ -1724,7 +2802,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:15">
       <c r="B7">
         <v>3</v>
       </c>
@@ -1772,7 +2850,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:15">
       <c r="B8">
         <v>4</v>
       </c>
@@ -1814,7 +2892,7 @@
         <v>12.505002000800319</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:15">
       <c r="B9">
         <v>5</v>
       </c>
@@ -1856,7 +2934,7 @@
         <v>11.599851521900518</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:15">
       <c r="C12" t="s">
         <v>6</v>
       </c>
@@ -1867,7 +2945,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:15">
       <c r="B13" t="s">
         <v>0</v>
       </c>
@@ -1902,7 +2980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:15">
       <c r="B14">
         <v>1</v>
       </c>
@@ -1944,7 +3022,7 @@
         <v>24.168600154679037</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:15">
       <c r="B15">
         <v>2</v>
       </c>
@@ -1986,7 +3064,7 @@
         <v>24.567610062893081</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:15">
       <c r="B16">
         <v>3</v>
       </c>
@@ -2028,7 +3106,7 @@
         <v>22.305496074232693</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:12">
       <c r="B17">
         <v>4</v>
       </c>
@@ -2070,7 +3148,7 @@
         <v>21.792189679218968</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:12">
       <c r="B18">
         <v>5</v>
       </c>
@@ -2112,32 +3190,32 @@
         <v>20.5456936226167</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:12">
       <c r="B22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:12">
       <c r="B23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:12">
       <c r="B24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:12">
       <c r="B25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:12">
       <c r="B26">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:12">
       <c r="D28" t="s">
         <v>18</v>
       </c>
@@ -2145,7 +3223,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:12">
       <c r="B29" t="s">
         <v>7</v>
       </c>
@@ -2168,7 +3246,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:12">
       <c r="B30" t="s">
         <v>9</v>
       </c>
@@ -2200,7 +3278,7 @@
         <v>28.153153153153152</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:12">
       <c r="B31" t="s">
         <v>10</v>
       </c>
@@ -2232,7 +3310,7 @@
         <v>26.041666666666668</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:12">
       <c r="B32" t="s">
         <v>20</v>
       </c>
@@ -2264,7 +3342,7 @@
         <v>32.552083333333336</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9">
       <c r="B33" t="s">
         <v>19</v>
       </c>
@@ -2296,7 +3374,7 @@
         <v>29.761904761904763</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9">
       <c r="B34" t="s">
         <v>11</v>
       </c>
@@ -2336,13 +3414,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9A147B-64C6-3046-AB41-3BA1FCCCB232}">
-  <dimension ref="A3:I16"/>
+  <dimension ref="A3:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A13" zoomScale="109" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="75.33203125" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
@@ -2351,7 +3429,7 @@
     <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
         <v>21</v>
       </c>
@@ -2368,7 +3446,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -2393,7 +3471,7 @@
         <v>180000000.00000003</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -2414,7 +3492,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="D6" t="s">
         <v>24</v>
       </c>
@@ -2422,7 +3500,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="B7">
         <v>20</v>
       </c>
@@ -2436,7 +3514,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="B8" s="1">
         <f>20 *(2/3600000)</f>
         <v>1.111111111111111E-5</v>
@@ -2446,13 +3524,13 @@
         <v>180000000.00000003</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="F9">
         <f>2*360000</f>
         <v>720000</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="F10" t="s">
         <v>30</v>
       </c>
@@ -2460,7 +3538,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="D11" t="s">
         <v>35</v>
       </c>
@@ -2477,14 +3555,14 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="H11">
-        <f>2000/G11</f>
-        <v>58823.529411764699</v>
+        <f>(2000/G11)/24</f>
+        <v>2450.9803921568623</v>
       </c>
       <c r="I11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="E12">
         <f>C5</f>
         <v>3.7</v>
@@ -2501,7 +3579,7 @@
         <v>52631.57894736842</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="D13" t="s">
         <v>36</v>
       </c>
@@ -2518,14 +3596,14 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="H13">
-        <f>2000/G13</f>
-        <v>29850.746268656716</v>
+        <f>(2000/G13)/24</f>
+        <v>1243.7810945273632</v>
       </c>
       <c r="I13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="D14" t="s">
         <v>34</v>
       </c>
@@ -2541,16 +3619,44 @@
         <v>2.1599999999999998E-2</v>
       </c>
       <c r="H14">
-        <f>2000/G14</f>
-        <v>92592.592592592599</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <f>(2000/G14)/24</f>
+        <v>3858.0246913580249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="B16" t="s">
         <v>31</v>
       </c>
     </row>
+    <row r="17" spans="6:7">
+      <c r="F17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17">
+        <f>H13</f>
+        <v>1243.7810945273632</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7">
+      <c r="F18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18">
+        <f>H11</f>
+        <v>2450.9803921568623</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7">
+      <c r="F19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19">
+        <f>H14</f>
+        <v>3858.0246913580249</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/results/energy-analysis/energy-consumption.xlsx
+++ b/results/energy-analysis/energy-consumption.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/VM/jacdac-ota/microbit-samples/results/energy-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E391CCD1-8F76-6247-9503-3C9640B71D9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD7CF2A-1CA2-674B-B263-D6FBBD7E48E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16500" xr2:uid="{30CE4A45-ABCB-A74E-87BA-8D74890818CE}"/>
+    <workbookView xWindow="280" yWindow="460" windowWidth="28040" windowHeight="16500" activeTab="1" xr2:uid="{30CE4A45-ABCB-A74E-87BA-8D74890818CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -151,7 +151,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2644,17 +2644,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22C6116-72B2-114B-ADC4-0691EDF344F1}">
   <dimension ref="B3:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="30.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:15">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>1</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>2</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>3</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>4</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>12.505002000800319</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>5</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>11.599851521900518</v>
       </c>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>6</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>0</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>1</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>24.168600154679037</v>
       </c>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>2</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>24.567610062893081</v>
       </c>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>3</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>22.305496074232693</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>4</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>21.792189679218968</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>5</v>
       </c>
@@ -3190,32 +3190,32 @@
         <v>20.5456936226167</v>
       </c>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
         <v>18</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>7</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>9</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>28.153153153153152</v>
       </c>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>10</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>26.041666666666668</v>
       </c>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>20</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>32.552083333333336</v>
       </c>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>19</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>29.761904761904763</v>
       </c>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>11</v>
       </c>
@@ -3414,13 +3414,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9A147B-64C6-3046-AB41-3BA1FCCCB232}">
-  <dimension ref="A3:I19"/>
+  <dimension ref="A3:I21"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="109" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="75.33203125" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
@@ -3429,7 +3429,7 @@
     <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>21</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>180000000.00000003</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>24</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>20</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <f>20 *(2/3600000)</f>
         <v>1.111111111111111E-5</v>
@@ -3524,13 +3524,13 @@
         <v>180000000.00000003</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F9">
         <f>2*360000</f>
         <v>720000</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F10" t="s">
         <v>30</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
         <v>35</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E12">
         <f>C5</f>
         <v>3.7</v>
@@ -3579,7 +3579,7 @@
         <v>52631.57894736842</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>36</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
         <v>34</v>
       </c>
@@ -3623,12 +3623,12 @@
         <v>3858.0246913580249</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="6:7">
+    <row r="17" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F17" t="s">
         <v>36</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>1243.7810945273632</v>
       </c>
     </row>
-    <row r="18" spans="6:7">
+    <row r="18" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F18" t="s">
         <v>35</v>
       </c>
@@ -3646,13 +3646,19 @@
         <v>2450.9803921568623</v>
       </c>
     </row>
-    <row r="19" spans="6:7">
+    <row r="19" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F19" t="s">
         <v>34</v>
       </c>
       <c r="G19">
         <f>H14</f>
         <v>3858.0246913580249</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <f>G19-G18</f>
+        <v>1407.0442992011626</v>
       </c>
     </row>
   </sheetData>
